--- a/Практика Малленом Системс/docs/тест кейс(Первый проект).xlsx
+++ b/Практика Малленом Системс/docs/тест кейс(Первый проект).xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27932"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6046CD4-E7F1-4B1A-B316-7891BA0B5AAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB95603C-3C1D-4CA7-AED4-1A9F295011FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>Наименование теста</t>
   </si>
@@ -67,10 +67,28 @@
     <t>Изображение изменило угол наклона на 90, 180, 270 градусов</t>
   </si>
   <si>
-    <t>1920, 1080</t>
-  </si>
-  <si>
     <t>Разрешение изображения стало 1920/1080</t>
+  </si>
+  <si>
+    <t>1920/1080</t>
+  </si>
+  <si>
+    <t>Тест на восприятие изображений формата .jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\Пользователь\Desktop\95.jpg</t>
+  </si>
+  <si>
+    <t>код выдаст ошибку так как работает тоько с форматом .png</t>
+  </si>
+  <si>
+    <t>код выдал ошибку</t>
+  </si>
+  <si>
+    <t>код не смог изменить изображение формата .jpg</t>
+  </si>
+  <si>
+    <t>это нужно будет доработать</t>
   </si>
 </sst>
 </file>
@@ -458,7 +476,7 @@
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -496,13 +514,13 @@
         <v>6</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>8</v>
@@ -531,13 +549,25 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+    <row r="4" spans="1:6" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
